--- a/Prova AMS/Dicionario_UC.xlsx
+++ b/Prova AMS/Dicionario_UC.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gransup\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gransup\Documents\OPE\eng_requisitos\Prova AMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E9F5810-5B25-4553-B465-E4A9D68E630A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5AB8C5-44AF-4078-8DE5-9D7CD0CE3A85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ACA384A1-2515-4A12-982A-F29646A02EC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ACA384A1-2515-4A12-982A-F29646A02EC3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cadastro Cliente" sheetId="1" r:id="rId1"/>
-    <sheet name="Ordem de Serviço" sheetId="2" r:id="rId2"/>
+    <sheet name="Ordem de Serviço" sheetId="2" r:id="rId1"/>
+    <sheet name="Cadastro Cliente" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
   <si>
     <t>Item</t>
   </si>
@@ -172,64 +172,85 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>Label do Cliente</t>
-  </si>
-  <si>
-    <t>Novo</t>
-  </si>
-  <si>
     <t>Botão para cadastrar novo cliente</t>
   </si>
   <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Produto vendido</t>
-  </si>
-  <si>
-    <t>Itens</t>
-  </si>
-  <si>
     <t>Quantidade</t>
   </si>
   <si>
-    <t>Valor unitario</t>
-  </si>
-  <si>
-    <t>Valor total</t>
-  </si>
-  <si>
     <t>Abrir O.S</t>
   </si>
   <si>
-    <t>Label do Produto</t>
-  </si>
-  <si>
-    <t>Campo para preencher o produto a ser vendido</t>
-  </si>
-  <si>
-    <t>Campo para preencher o valor da unidade</t>
-  </si>
-  <si>
-    <t>Label do Valor total</t>
-  </si>
-  <si>
     <t>Data Grid View dos Itens</t>
   </si>
   <si>
     <t>Data Grid View da quantidade de itens</t>
   </si>
   <si>
-    <t>Data Grid View do Valor da unidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo para preencher o Nome do cliente </t>
-  </si>
-  <si>
-    <t>Botão para abrir nova Ordem de Serviço</t>
-  </si>
-  <si>
     <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>Novo Cliente</t>
+  </si>
+  <si>
+    <t>Código do Produto</t>
+  </si>
+  <si>
+    <t>Data Grid View do ID dos itens</t>
+  </si>
+  <si>
+    <t>Total Itens</t>
+  </si>
+  <si>
+    <t>Excluir</t>
+  </si>
+  <si>
+    <t>Data Grid View para possibilidade excluir o item</t>
+  </si>
+  <si>
+    <t>Novo Item</t>
+  </si>
+  <si>
+    <t>Botão para adicionar um novo item</t>
+  </si>
+  <si>
+    <t>Valor total da manutenção</t>
+  </si>
+  <si>
+    <t>Serviço de Manutenção</t>
+  </si>
+  <si>
+    <t>Valor Total da Manutenção</t>
+  </si>
+  <si>
+    <t>Valor da Manutenção</t>
+  </si>
+  <si>
+    <t>Data Grid View dos itens que foi feita a manutenção</t>
+  </si>
+  <si>
+    <t>Data Grid View do valor de cada manutenção</t>
+  </si>
+  <si>
+    <t>Data Grid View do valor dos itens</t>
+  </si>
+  <si>
+    <t>Data Grid View do valor da unidade</t>
+  </si>
+  <si>
+    <t>Label do cliente</t>
+  </si>
+  <si>
+    <t>Botão para abrir nova ordem de serviço</t>
+  </si>
+  <si>
+    <t>Valor Unitario</t>
+  </si>
+  <si>
+    <t>Valor Total da O.S</t>
+  </si>
+  <si>
+    <t>Valor total da ordem de serviço</t>
   </si>
 </sst>
 </file>
@@ -288,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -307,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,11 +645,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987F393-5E4D-4E38-AF37-FBD13C87669F}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4CB0CF-7277-4DF9-B114-04AD4EBDCA16}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,402 +1464,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987F393-5E4D-4E38-AF37-FBD13C87669F}">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Prova AMS/Dicionario_UC.xlsx
+++ b/Prova AMS/Dicionario_UC.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gransup\Documents\OPE\eng_requisitos\Prova AMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5AB8C5-44AF-4078-8DE5-9D7CD0CE3A85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0993884D-FE3C-47DC-992B-BFE40E0BE1F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ACA384A1-2515-4A12-982A-F29646A02EC3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ordem de Serviço" sheetId="2" r:id="rId1"/>
-    <sheet name="Cadastro Cliente" sheetId="1" r:id="rId2"/>
+    <sheet name="Cadastro Cliente" sheetId="1" r:id="rId1"/>
+    <sheet name="Ordem de Serviço" sheetId="2" r:id="rId2"/>
+    <sheet name="Novo Item" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="76">
   <si>
     <t>Item</t>
   </si>
@@ -181,9 +182,6 @@
     <t>Abrir O.S</t>
   </si>
   <si>
-    <t>Data Grid View dos Itens</t>
-  </si>
-  <si>
     <t>Data Grid View da quantidade de itens</t>
   </si>
   <si>
@@ -196,9 +194,6 @@
     <t>Código do Produto</t>
   </si>
   <si>
-    <t>Data Grid View do ID dos itens</t>
-  </si>
-  <si>
     <t>Total Itens</t>
   </si>
   <si>
@@ -251,6 +246,21 @@
   </si>
   <si>
     <t>Valor total da ordem de serviço</t>
+  </si>
+  <si>
+    <t>Adicionar</t>
+  </si>
+  <si>
+    <t>Data Grid View do ID do produto</t>
+  </si>
+  <si>
+    <t>Data Grid View dos itens</t>
+  </si>
+  <si>
+    <t>Botão para voltar para a pagina anterior</t>
+  </si>
+  <si>
+    <t>Botão para adicionar o novo item na O.S</t>
   </si>
 </sst>
 </file>
@@ -309,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -331,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,409 +658,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987F393-5E4D-4E38-AF37-FBD13C87669F}">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4CB0CF-7277-4DF9-B114-04AD4EBDCA16}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1464,4 +1078,611 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987F393-5E4D-4E38-AF37-FBD13C87669F}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B3DDC9-CAB5-44C6-83E7-9E6189BDAF89}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prova AMS/Dicionario_UC.xlsx
+++ b/Prova AMS/Dicionario_UC.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gransup\Documents\OPE\eng_requisitos\Prova AMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0993884D-FE3C-47DC-992B-BFE40E0BE1F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839CAE2-D7CB-4147-946C-D2F8287489FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ACA384A1-2515-4A12-982A-F29646A02EC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{ACA384A1-2515-4A12-982A-F29646A02EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro Cliente" sheetId="1" r:id="rId1"/>
     <sheet name="Ordem de Serviço" sheetId="2" r:id="rId2"/>
     <sheet name="Novo Item" sheetId="3" r:id="rId3"/>
+    <sheet name="Folha1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="91">
   <si>
     <t>Item</t>
   </si>
@@ -261,6 +262,51 @@
   </si>
   <si>
     <t>Botão para adicionar o novo item na O.S</t>
+  </si>
+  <si>
+    <t>Ordem de Serviço Aberta</t>
+  </si>
+  <si>
+    <t>Label da ordem de serviço aberta</t>
+  </si>
+  <si>
+    <t>Nome Cliente</t>
+  </si>
+  <si>
+    <t>Label do Cliente</t>
+  </si>
+  <si>
+    <t>Campo com o nome do cliente</t>
+  </si>
+  <si>
+    <t>Número da O.S</t>
+  </si>
+  <si>
+    <t>Label do número da O.S</t>
+  </si>
+  <si>
+    <t>Campo com o número da O.S</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>O.S</t>
+  </si>
+  <si>
+    <t>Label do valor total</t>
+  </si>
+  <si>
+    <t>Campo com o valor total da O.S</t>
+  </si>
+  <si>
+    <t>Imprimir</t>
+  </si>
+  <si>
+    <t>Botão para imprimir o comprovante da O.S</t>
   </si>
 </sst>
 </file>
@@ -321,9 +367,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -344,6 +387,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,417 +708,417 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1084,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987F393-5E4D-4E38-AF37-FBD13C87669F}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,379 +1145,379 @@
     <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1484,7 +1530,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,187 +1544,441 @@
     <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EACBB9A-433A-45A1-9A92-4E48E2D8CD98}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Prova AMS/Dicionario_UC.xlsx
+++ b/Prova AMS/Dicionario_UC.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gransup\Documents\OPE\eng_requisitos\Prova AMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839CAE2-D7CB-4147-946C-D2F8287489FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C294DE1-D2C1-4888-9E67-E89136853C77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{ACA384A1-2515-4A12-982A-F29646A02EC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{ACA384A1-2515-4A12-982A-F29646A02EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro Cliente" sheetId="1" r:id="rId1"/>
     <sheet name="Ordem de Serviço" sheetId="2" r:id="rId2"/>
     <sheet name="Novo Item" sheetId="3" r:id="rId3"/>
-    <sheet name="Folha1" sheetId="4" r:id="rId4"/>
+    <sheet name="Confirmar" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -330,12 +330,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -365,31 +377,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,7 +714,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,385 +729,385 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1115,10 +1121,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,7 +1137,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,379 +1151,379 @@
     <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="E14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1529,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B3DDC9-CAB5-44C6-83E7-9E6189BDAF89}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,187 +1550,187 @@
     <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1737,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EACBB9A-433A-45A1-9A92-4E48E2D8CD98}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,232 +1759,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
